--- a/pred_ohlcv/54_21/2019-10-19 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 INS ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-31782.4868</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-31275.4868</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-31671.7771</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-50452.856</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-43694.122</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-43694.122</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-43689.122</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-42072.2939</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-43174.93870000001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-44026.22300000001</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-39383.00440000001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-41098.00440000001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20951.4617</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20949.4617</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-20949.4617</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-20949.4617</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-19179.4617</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-18139.1329</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>15598.7401</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 INS ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-31671.7771</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-50452.856</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-43694.122</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-43694.122</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-43694.122</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-43689.122</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-40632.61310000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-39632.67910000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-39383.00440000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-39380.00440000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-42380.00440000001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20951.4617</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20949.4617</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-20949.4617</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-20949.4617</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-19179.4617</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-18579.4617</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-18139.1329</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26918.8062</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>15598.7401</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
